--- a/data/trans_dic/P17_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.78708975145903</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.719218527975482</v>
+        <v>0.7192185279754821</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6131430051708964</v>
@@ -697,7 +697,7 @@
         <v>0.7621977838612609</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.6043193627121723</v>
+        <v>0.6043193627121722</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5027073804437968</v>
+        <v>0.5038429092738349</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6160828946008563</v>
+        <v>0.6195394184139199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.693514273278421</v>
+        <v>0.6950349449487802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4184145486902304</v>
+        <v>0.431515990514088</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6428053588429178</v>
+        <v>0.639831227250715</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7267788091456653</v>
+        <v>0.7306623264902524</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7461447885528665</v>
+        <v>0.7479863649700927</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6456557836647042</v>
+        <v>0.64780289880582</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.581030467152941</v>
+        <v>0.5832673913914678</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6840384511840246</v>
+        <v>0.6843883549569699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7314479267882144</v>
+        <v>0.7310706080482712</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5495736052847434</v>
+        <v>0.551617874611267</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5937856630684721</v>
+        <v>0.5928496631047646</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7057557968700578</v>
+        <v>0.7041143679939826</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7845083322853574</v>
+        <v>0.781990559528138</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5762823705064657</v>
+        <v>0.5912523340233096</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7194391683866733</v>
+        <v>0.7237935663025965</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8089775202499918</v>
+        <v>0.811266897074566</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.82574264573495</v>
+        <v>0.8264506097959039</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7797877028868188</v>
+        <v>0.7792373350277128</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6418659931912321</v>
+        <v>0.6430126376232475</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7450393708021152</v>
+        <v>0.7461851497045519</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7897652800331646</v>
+        <v>0.7894629560575283</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6559876352396884</v>
+        <v>0.6581314177712213</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6572258142262453</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.568526487612688</v>
+        <v>0.5685264876126881</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7157617822882855</v>
@@ -821,7 +821,7 @@
         <v>0.7691759409649181</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.686881012981296</v>
+        <v>0.6868810129812959</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.597423646089375</v>
@@ -833,7 +833,7 @@
         <v>0.7118000189062698</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6290660110478913</v>
+        <v>0.6290660110478914</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4597603457277609</v>
+        <v>0.4610545294069262</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6194846028747051</v>
+        <v>0.6200801724287458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6179956541835083</v>
+        <v>0.6173253174248691</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5041311936978613</v>
+        <v>0.5088345665019387</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6801745616273502</v>
+        <v>0.6756862867006402</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7403669413566795</v>
+        <v>0.7418666856323767</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7334250051512478</v>
+        <v>0.7346644882544274</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6377012096404879</v>
+        <v>0.6418194806443761</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5719342586191664</v>
+        <v>0.5694537711707137</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6890941839677612</v>
+        <v>0.6906459379762709</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6859341203837137</v>
+        <v>0.6837186987731291</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5933869058620563</v>
+        <v>0.5937225825104657</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5325250711352242</v>
+        <v>0.5369196617886383</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6936321463942463</v>
+        <v>0.6922502845165311</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6984763461860413</v>
+        <v>0.6944858517114441</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6250805251085578</v>
+        <v>0.6253148838145302</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7549792624447291</v>
+        <v>0.7511821331267499</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8074108576702738</v>
+        <v>0.8118663150060735</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8031805571399917</v>
+        <v>0.8033160886446199</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7258781479876231</v>
+        <v>0.7332842639876728</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6242999479296129</v>
+        <v>0.6248121862783631</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7395789228466996</v>
+        <v>0.7401772911074805</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7372608910725327</v>
+        <v>0.7375365816441878</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.667074700687258</v>
+        <v>0.6643942881902047</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6809416845067037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6039949690132106</v>
+        <v>0.6039949690132107</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6873853533725093</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5236472927627199</v>
+        <v>0.5239895729916536</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5967060292692112</v>
+        <v>0.600053881667568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6452718591993091</v>
+        <v>0.6456000113093509</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5623921442477468</v>
+        <v>0.5608425334136811</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6517654911325736</v>
+        <v>0.6522133098271856</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7325179769594246</v>
+        <v>0.7304995209282926</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6973740567707876</v>
+        <v>0.6936756450478553</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6765002462940685</v>
+        <v>0.6756266173195979</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6015283242379257</v>
+        <v>0.5997892166446537</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6774771848393818</v>
+        <v>0.6795349336116144</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.682878465635032</v>
+        <v>0.6797674080039406</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6284567438204445</v>
+        <v>0.6271059338824779</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6059056869990805</v>
+        <v>0.6072051084160526</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6729599891675151</v>
+        <v>0.6765065508563018</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7180857316034032</v>
+        <v>0.7219922925150939</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6467003526753481</v>
+        <v>0.6458698040473899</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7215180082935674</v>
+        <v>0.724902977013732</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7968317135107825</v>
+        <v>0.7978316732637458</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7656808150879506</v>
+        <v>0.7611600467908731</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7353396737753998</v>
+        <v>0.7375488692469223</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6561597399249237</v>
+        <v>0.6543005358440465</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7266780810998977</v>
+        <v>0.7308661536544603</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7341292466372608</v>
+        <v>0.7316463099368575</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6821060688755857</v>
+        <v>0.6801990501605958</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7298233615461039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6782323988734307</v>
+        <v>0.6782323988734306</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7630695138246631</v>
@@ -1105,7 +1105,7 @@
         <v>0.7612426018981292</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.709789018936356</v>
+        <v>0.7097890189363562</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5594393113915164</v>
+        <v>0.558316491853631</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.622314449861455</v>
+        <v>0.6201293470510716</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6914664232355208</v>
+        <v>0.6923091186181111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6434637230575593</v>
+        <v>0.6402427147476216</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7242970999127636</v>
+        <v>0.7272373800958468</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7553700438031425</v>
+        <v>0.7515893980001987</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7593272885179644</v>
+        <v>0.7610049710592236</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7123936543212043</v>
+        <v>0.7114023640832917</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6516830197297904</v>
+        <v>0.6515271865226322</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.696783457148106</v>
+        <v>0.6959693698035073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7349118492727896</v>
+        <v>0.7357307669112519</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6867605378053645</v>
+        <v>0.6881472885180594</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6463029660898693</v>
+        <v>0.6484568419120986</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7043262390680768</v>
+        <v>0.7008202999018998</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7635063382490823</v>
+        <v>0.7666693419373961</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.714234583511158</v>
+        <v>0.7118114505475692</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7974004484997574</v>
+        <v>0.8026605936119156</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8256263963019873</v>
+        <v>0.8217126143483768</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8241696601065813</v>
+        <v>0.8237446335077685</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7668531082906256</v>
+        <v>0.7659828844362324</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7124676796128601</v>
+        <v>0.7130521495387373</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7515959244201795</v>
+        <v>0.7516041387266688</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.784120316848007</v>
+        <v>0.7848918878904528</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7312409978652336</v>
+        <v>0.7321266226847596</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7695756896284476</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7726257468494582</v>
+        <v>0.7726257468494584</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.8115330302566334</v>
@@ -1229,7 +1229,7 @@
         <v>0.8668676670584805</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.809522978299033</v>
+        <v>0.8095229782990329</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7889867160562209</v>
@@ -1241,7 +1241,7 @@
         <v>0.8192890417623168</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7910648800123742</v>
+        <v>0.7910648800123744</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7201332775305715</v>
+        <v>0.718212579310301</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7250289133404956</v>
+        <v>0.7199942051994653</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.726090351140196</v>
+        <v>0.7245527757353442</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.736689971762122</v>
+        <v>0.7357926819710773</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7692219089487247</v>
+        <v>0.7710347623026027</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8654238435231179</v>
+        <v>0.8663007009047142</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8329860234333347</v>
+        <v>0.8313429011016257</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7835881420416517</v>
+        <v>0.7847808990644776</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7597380031119637</v>
+        <v>0.7626856429461331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.8103696189071155</v>
+        <v>0.8089813697349183</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7929633392495623</v>
+        <v>0.7919465612740723</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7708392621854941</v>
+        <v>0.7685258984621849</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8054997247298776</v>
+        <v>0.8028607917214756</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8110875971058767</v>
+        <v>0.8104605718439536</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8064450404825929</v>
+        <v>0.8103955522494433</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8060692077001502</v>
+        <v>0.8012318643261053</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.849219429406286</v>
+        <v>0.8469869388759778</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9280404961573967</v>
+        <v>0.9255141686849376</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.898809441383436</v>
+        <v>0.8996367839677403</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8307793006357392</v>
+        <v>0.8316776897068162</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8160754428182092</v>
+        <v>0.8185776656098201</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8618411508424965</v>
+        <v>0.8616296881825118</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.84674136965086</v>
+        <v>0.8440059619012553</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8110066938725959</v>
+        <v>0.8100880638100104</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.8710327468378141</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.789256394450241</v>
+        <v>0.7892563944502409</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.9017468229077196</v>
@@ -1377,7 +1377,7 @@
         <v>0.8830533033645658</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.8307019078202257</v>
+        <v>0.8307019078202258</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8042452195795701</v>
+        <v>0.8032268197767086</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8489852006643591</v>
+        <v>0.8518269420774689</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8311070515636632</v>
+        <v>0.834179773656449</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7505726723797096</v>
+        <v>0.7498593828734389</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8616725576555841</v>
+        <v>0.8690591625563456</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8833030002267592</v>
+        <v>0.8846907934913917</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.858784137295543</v>
+        <v>0.8576569266718548</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8481126066355781</v>
+        <v>0.8425005497979082</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8513762542850684</v>
+        <v>0.8503458948578287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.8796963682024259</v>
+        <v>0.8803909399246101</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8580722031014184</v>
+        <v>0.8558583213446574</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.8084390980021722</v>
+        <v>0.8101103016083137</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8886087917539909</v>
+        <v>0.8877453968842219</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9237901872930241</v>
+        <v>0.9255544914471346</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9076966948687951</v>
+        <v>0.9067424517440207</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8225654652940286</v>
+        <v>0.8214757372091053</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9263730720863295</v>
+        <v>0.9282496574145808</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9444648341468914</v>
+        <v>0.9434412680964466</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9216632671803685</v>
+        <v>0.9215233367974633</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8921806864113918</v>
+        <v>0.8890988758523426</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9031558759575412</v>
+        <v>0.9023473201589244</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.9289196203540085</v>
+        <v>0.9276533299052374</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9059848560559589</v>
+        <v>0.905114507342938</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.8496278458415298</v>
+        <v>0.8500042207511358</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.9184401445324971</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8829697474289031</v>
+        <v>0.8829697474289029</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.9442424501751447</v>
@@ -1501,7 +1501,7 @@
         <v>0.933290156527638</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.8727640648855624</v>
+        <v>0.8727640648855622</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.9259485718923777</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8485907850889145</v>
+        <v>0.848119919871951</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8901000672120755</v>
+        <v>0.8948742858597344</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8824261748276975</v>
+        <v>0.8841223904876897</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.848359797604922</v>
+        <v>0.8466883649173683</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9144262532299524</v>
+        <v>0.9154691136815601</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8892756988360108</v>
+        <v>0.8881004257320044</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8973945249463537</v>
+        <v>0.897498198678091</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8496336468491191</v>
+        <v>0.8473481710690007</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8964404748307294</v>
+        <v>0.9019733911536364</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.8999094921488148</v>
+        <v>0.9003424382927669</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9054788473998978</v>
+        <v>0.9052929785378311</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8562210123899331</v>
+        <v>0.8563980450053502</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9312738700741138</v>
+        <v>0.9315798429155582</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9583315806318176</v>
+        <v>0.9623575551792179</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9470689850047993</v>
+        <v>0.943835927088018</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9136779471298735</v>
+        <v>0.91100079094342</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9684853813609049</v>
+        <v>0.9683735562544437</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9463244142868196</v>
+        <v>0.9466639466959701</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9566501931521683</v>
+        <v>0.9559767626443719</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.894028284905321</v>
+        <v>0.8933372875810702</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9472017611098716</v>
+        <v>0.9478566710789319</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9429188698915175</v>
+        <v>0.9451119743067444</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9459300975773411</v>
+        <v>0.9460378612445085</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.8937171292259378</v>
+        <v>0.8936617317951728</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.742382130370966</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.6770574223006476</v>
+        <v>0.6770574223006478</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.7652925706874355</v>
@@ -1637,7 +1637,7 @@
         <v>0.8143099857757806</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.7683594315325832</v>
+        <v>0.7683594315325835</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.6959294833155656</v>
@@ -1649,7 +1649,7 @@
         <v>0.7791047487428887</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.7239932021773502</v>
+        <v>0.7239932021773501</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6061439617617165</v>
+        <v>0.6071045534179215</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6945214692876374</v>
+        <v>0.6943590784963801</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7264844021489205</v>
+        <v>0.7256070227215125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6588406325784772</v>
+        <v>0.6575178581577757</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.7512426475852377</v>
+        <v>0.7499558508446812</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8076043635527712</v>
+        <v>0.8070916908929641</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.798619190484875</v>
+        <v>0.8009387156837005</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.7550995737333459</v>
+        <v>0.7556038702678599</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6838903940609194</v>
+        <v>0.6838645647773079</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.756310306473623</v>
+        <v>0.7564840052047532</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.7693312958272205</v>
+        <v>0.7686610544541309</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.7133943232493778</v>
+        <v>0.7123693661084728</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6412234208557039</v>
+        <v>0.642791807674418</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7269112551938095</v>
+        <v>0.7256949718838004</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7575429209626804</v>
+        <v>0.7565996703382448</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6946638728315823</v>
+        <v>0.6940281275918756</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7792960309406581</v>
+        <v>0.7791370829611663</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8356432116062803</v>
+        <v>0.8342635721708344</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8261502981281649</v>
+        <v>0.8274769917196019</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7799253216194872</v>
+        <v>0.7802798375227298</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7069237393564309</v>
+        <v>0.7068052357569956</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7770287606178909</v>
+        <v>0.777234981392992</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.7890082952081113</v>
+        <v>0.7893404346907288</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7348326709550341</v>
+        <v>0.7344924892836033</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>246954</v>
+        <v>247512</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>279150</v>
+        <v>280716</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>288663</v>
+        <v>289296</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>170627</v>
+        <v>175969</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>300504</v>
+        <v>299114</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>311913</v>
+        <v>313580</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>295291</v>
+        <v>296019</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>234058</v>
+        <v>234836</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>557056</v>
+        <v>559201</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>603511</v>
+        <v>603820</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>593926</v>
+        <v>593620</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>423339</v>
+        <v>424914</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>291697</v>
+        <v>291237</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>319781</v>
+        <v>319038</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>326537</v>
+        <v>325489</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>235004</v>
+        <v>241109</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>336330</v>
+        <v>338366</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>347191</v>
+        <v>348173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>326792</v>
+        <v>327072</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>282682</v>
+        <v>282483</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>615381</v>
+        <v>616481</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>657331</v>
+        <v>658342</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>641279</v>
+        <v>641034</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>505311</v>
+        <v>506962</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>336645</v>
+        <v>337592</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>425640</v>
+        <v>426049</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>364278</v>
+        <v>363882</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>240415</v>
+        <v>242658</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>425445</v>
+        <v>422638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>451093</v>
+        <v>452007</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>411206</v>
+        <v>411901</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>318445</v>
+        <v>320502</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>776522</v>
+        <v>773154</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>893321</v>
+        <v>895333</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>788904</v>
+        <v>786356</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>579296</v>
+        <v>579624</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>389924</v>
+        <v>393142</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>476586</v>
+        <v>475636</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>411717</v>
+        <v>409365</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>298095</v>
+        <v>298206</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>472235</v>
+        <v>469860</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>491942</v>
+        <v>494656</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>450316</v>
+        <v>450392</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>362477</v>
+        <v>366176</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>847620</v>
+        <v>848315</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>958768</v>
+        <v>959544</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>847936</v>
+        <v>848253</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>651234</v>
+        <v>648618</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>334012</v>
+        <v>334230</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>406872</v>
+        <v>409155</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>431749</v>
+        <v>431969</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>346758</v>
+        <v>345803</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>449551</v>
+        <v>449860</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>520710</v>
+        <v>519276</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>457736</v>
+        <v>455309</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>419868</v>
+        <v>419326</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>798589</v>
+        <v>796280</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>943531</v>
+        <v>946396</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>905133</v>
+        <v>901009</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>777542</v>
+        <v>775871</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>386481</v>
+        <v>387309</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>458867</v>
+        <v>461285</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>480469</v>
+        <v>483083</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>398741</v>
+        <v>398228</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>497663</v>
+        <v>499997</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>566428</v>
+        <v>567139</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>502571</v>
+        <v>499603</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>456386</v>
+        <v>457757</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>871118</v>
+        <v>868649</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1012053</v>
+        <v>1017886</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>973064</v>
+        <v>969773</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>843918</v>
+        <v>841559</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>289482</v>
+        <v>288901</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>382485</v>
+        <v>381142</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>446720</v>
+        <v>447265</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>448605</v>
+        <v>446359</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>373478</v>
+        <v>374994</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>464590</v>
+        <v>462264</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>490493</v>
+        <v>491576</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>523125</v>
+        <v>522397</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>673249</v>
+        <v>673088</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>856811</v>
+        <v>855810</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>949510</v>
+        <v>950568</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>983093</v>
+        <v>985078</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>334430</v>
+        <v>335545</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>432891</v>
+        <v>430736</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>493262</v>
+        <v>495305</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>497944</v>
+        <v>496255</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>411173</v>
+        <v>413886</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>507801</v>
+        <v>505394</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>532378</v>
+        <v>532104</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>563116</v>
+        <v>562477</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>736045</v>
+        <v>736649</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>924212</v>
+        <v>924222</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1013087</v>
+        <v>1014084</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1046766</v>
+        <v>1048034</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>277894</v>
+        <v>277152</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>310581</v>
+        <v>308424</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>344490</v>
+        <v>343760</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>446705</v>
+        <v>446161</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>310004</v>
+        <v>310735</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>387537</v>
+        <v>387929</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>412938</v>
+        <v>412123</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>474655</v>
+        <v>475377</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>599360</v>
+        <v>601685</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>710022</v>
+        <v>708805</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>769315</v>
+        <v>768328</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>934344</v>
+        <v>931540</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>310836</v>
+        <v>309818</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>347446</v>
+        <v>347177</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>382614</v>
+        <v>384488</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>488775</v>
+        <v>485841</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>342244</v>
+        <v>341344</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>415577</v>
+        <v>414445</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>445569</v>
+        <v>445979</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>503240</v>
+        <v>503785</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>643804</v>
+        <v>645778</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>755119</v>
+        <v>754934</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>821489</v>
+        <v>818835</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>983032</v>
+        <v>981918</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>235308</v>
+        <v>235011</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>263004</v>
+        <v>263884</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>276970</v>
+        <v>277994</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>305543</v>
+        <v>305253</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>294693</v>
+        <v>297219</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>312686</v>
+        <v>313177</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>323584</v>
+        <v>323159</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>371357</v>
+        <v>368900</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>540270</v>
+        <v>539616</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>583927</v>
+        <v>584388</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>609272</v>
+        <v>607700</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>683085</v>
+        <v>684497</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>259992</v>
+        <v>259739</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>286177</v>
+        <v>286724</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>302494</v>
+        <v>302176</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>334850</v>
+        <v>334406</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>316821</v>
+        <v>317462</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>334337</v>
+        <v>333974</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>347276</v>
+        <v>347224</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>390653</v>
+        <v>389304</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>573128</v>
+        <v>572615</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>616600</v>
+        <v>615760</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>643292</v>
+        <v>642674</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>717887</v>
+        <v>718205</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>178105</v>
+        <v>178006</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>222392</v>
+        <v>223585</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>226782</v>
+        <v>227218</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>262353</v>
+        <v>261836</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>305334</v>
+        <v>305682</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>345910</v>
+        <v>345452</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>359109</v>
+        <v>359151</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>394747</v>
+        <v>393686</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>487476</v>
+        <v>490485</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>574889</v>
+        <v>575166</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>595051</v>
+        <v>594929</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>662592</v>
+        <v>662729</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>195459</v>
+        <v>195523</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>239440</v>
+        <v>240446</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>243395</v>
+        <v>242564</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>282552</v>
+        <v>281724</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>323385</v>
+        <v>323348</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>368100</v>
+        <v>368232</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>382822</v>
+        <v>382552</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>415374</v>
+        <v>415053</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>515080</v>
+        <v>515436</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>602365</v>
+        <v>603766</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>621634</v>
+        <v>621705</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>691608</v>
+        <v>691565</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1980352</v>
+        <v>1983491</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2378512</v>
+        <v>2377956</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2459530</v>
+        <v>2456560</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2319862</v>
+        <v>2315205</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2537164</v>
+        <v>2532818</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2871138</v>
+        <v>2869315</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2820278</v>
+        <v>2828469</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2812791</v>
+        <v>2814670</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>4544056</v>
+        <v>4543884</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>5278900</v>
+        <v>5280112</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>5321439</v>
+        <v>5316803</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>5169389</v>
+        <v>5161962</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2094962</v>
+        <v>2100086</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2489437</v>
+        <v>2485272</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2564680</v>
+        <v>2561486</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2446000</v>
+        <v>2443762</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2631908</v>
+        <v>2631371</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2970819</v>
+        <v>2965915</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2917503</v>
+        <v>2922188</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2905269</v>
+        <v>2906589</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>4697099</v>
+        <v>4696312</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>5423511</v>
+        <v>5424950</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>5457544</v>
+        <v>5459842</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>5324736</v>
+        <v>5322271</v>
       </c>
     </row>
     <row r="36">
